--- a/biology/Biologie cellulaire et moléculaire/Barettine/Barettine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Barettine/Barettine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La barettine est un alcaloïde bromé constitué d'un dérivé bromé déshydrogéné de tryptophane lié par deux liaisons peptidiques à un résidu d'arginine en formant un noyau dicétopipérazine. Il s'agit donc d'un dipeptide cyclique.
-On la trouve chez l'éponge profonde Geodia barretti, chez qui elle empêche la fixation des balanes. Cet effet est observé à des concentrations aussi faibles que 0,25 à 25 µmol/L de barettine[2], certains dérivés synthétiques étant actifs à des concentrations encore plus faibles, telles que 34 nM[3].
-On ignore comment elle agit chez l'homme, mais elle serait susceptible de diverses applications comme antifongique, antibiotique, vermifuge, insecticide, voire molécule chimiothérapeutique anticancéreuse[4].
-Les récepteurs sérotoninergiques humains 5-HT2A, 5-HT2C et 5-HT4 se lient sélectivement à la barettine à des concentrations du même ordre que celles de la sérotonine endogène[2].
+On la trouve chez l'éponge profonde Geodia barretti, chez qui elle empêche la fixation des balanes. Cet effet est observé à des concentrations aussi faibles que 0,25 à 25 µmol/L de barettine, certains dérivés synthétiques étant actifs à des concentrations encore plus faibles, telles que 34 nM.
+On ignore comment elle agit chez l'homme, mais elle serait susceptible de diverses applications comme antifongique, antibiotique, vermifuge, insecticide, voire molécule chimiothérapeutique anticancéreuse.
+Les récepteurs sérotoninergiques humains 5-HT2A, 5-HT2C et 5-HT4 se lient sélectivement à la barettine à des concentrations du même ordre que celles de la sérotonine endogène.
 </t>
         </is>
       </c>
